--- a/api/components/請求書明細（テンプレート）.xlsx
+++ b/api/components/請求書明細（テンプレート）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almeida.ped_redhorse\Documents\GitHub\rht-hotel\api\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D578BEB-2493-4839-BA7B-64D139DED25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148F31E-40B7-425F-BABD-8F106A9B54BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="2325" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,48 +98,57 @@
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF3C4043"/>
       <name val="Roboto Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +156,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,10 +550,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +780,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -802,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="37"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
@@ -814,14 +826,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,12 +852,12 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -856,7 +868,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>4</v>
       </c>
@@ -880,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1330,7 @@
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="25" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="14" x14ac:dyDescent="0.3">
       <c r="B41" s="29" t="s">
         <v>14</v>
       </c>
